--- a/Data/Processed/Angiosperms/missing_powo_ipni/Rutaceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Rutaceae.xlsx
@@ -6262,7 +6262,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -6272,7 +6272,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t xml:space="preserve">Syst. Veg., ed. 16 [Sprengel] 2: 217. 1825 [Jan-May 1825] </t>
+          <t>Syst. Veg., ed. 16 [Sprengel] 2: 217. 1825 [Jan-May 1825]</t>
         </is>
       </c>
       <c r="J107" t="b">
@@ -6340,7 +6340,7 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -6350,7 +6350,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t xml:space="preserve">Candollea 46: 231, fig. 2. 1991 </t>
+          <t>Candollea 46: 231, fig. 2. 1991</t>
         </is>
       </c>
       <c r="J108" t="b">
@@ -6418,7 +6418,7 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -6496,7 +6496,7 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -6506,7 +6506,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bol. Mus. Paraense Emilio Goeldi, N.S., Bot. 7: 302, figs. 1, 2a. 1991 </t>
+          <t>Bol. Mus. Paraense Emilio Goeldi, N.S., Bot. 7: 302, figs. 1, 2a. 1991</t>
         </is>
       </c>
       <c r="J110" t="b">
@@ -6574,7 +6574,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
